--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -91,13 +91,58 @@
   </si>
   <si>
     <t>shoeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Create </t>
+  </si>
+  <si>
+    <t>Merchandising</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TC-01</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>TC-12</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>TC-04</t>
+  </si>
+  <si>
+    <t>TC-03</t>
+  </si>
+  <si>
+    <t>TC-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,6 +199,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -229,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,11 +328,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -301,6 +377,24 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,24 +413,11 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +641,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -578,139 +659,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="22">
+        <v>44684</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="22">
+        <v>44684</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -721,7 +816,9 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -732,7 +829,9 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -743,7 +842,9 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="8"/>
@@ -754,7 +855,9 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -765,7 +868,9 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="8"/>
@@ -776,7 +881,9 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
@@ -787,7 +894,9 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="8"/>
@@ -798,7 +907,9 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
@@ -809,7 +920,9 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
@@ -819,8 +932,19 @@
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
     </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -837,12 +961,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>TC-02</t>
+  </si>
+  <si>
+    <t>Valid Url and stable internet</t>
   </si>
 </sst>
 </file>
@@ -377,47 +380,47 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -659,156 +662,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="22">
+      <c r="E1" s="23"/>
+      <c r="F1" s="10">
         <v>44684</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="22">
+      <c r="E2" s="24"/>
+      <c r="F2" s="10">
         <v>44684</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -821,7 +826,9 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -834,7 +841,9 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -847,7 +856,9 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -860,7 +871,9 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -873,7 +886,9 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -886,7 +901,9 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -899,7 +916,9 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -912,7 +931,9 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -925,7 +946,9 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -933,18 +956,15 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -961,6 +981,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,6 +207,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -361,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -374,9 +380,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,6 +388,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,24 +424,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +657,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -662,163 +672,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="10">
+      <c r="E1" s="16"/>
+      <c r="F1" s="9">
         <v>44684</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10">
+      <c r="E2" s="17"/>
+      <c r="F2" s="9">
         <v>44684</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -826,14 +836,14 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -841,14 +851,14 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -856,14 +866,14 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -871,14 +881,14 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -886,14 +896,14 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -901,14 +911,14 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -916,14 +926,14 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
@@ -931,14 +941,14 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -946,25 +956,31 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="26" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -981,14 +997,8 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -139,13 +139,46 @@
   </si>
   <si>
     <t>Valid Url and stable internet</t>
+  </si>
+  <si>
+    <t>select buyer name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write po number </t>
+  </si>
+  <si>
+    <t>Input seasion year</t>
+  </si>
+  <si>
+    <t>Select a date field</t>
+  </si>
+  <si>
+    <t>select agent name</t>
+  </si>
+  <si>
+    <t>select inspection agent name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input commison </t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>input seasion year in word</t>
+  </si>
+  <si>
+    <t>input po number in all strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -206,11 +239,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -384,10 +412,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,31 +456,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +685,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -672,156 +700,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="9">
         <v>44684</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="9">
         <v>44684</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="7"/>
@@ -834,9 +864,11 @@
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5"/>
@@ -849,9 +881,11 @@
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="5"/>
@@ -864,9 +898,11 @@
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="5"/>
@@ -879,9 +915,11 @@
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="5"/>
@@ -894,9 +932,11 @@
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="5"/>
@@ -909,9 +949,11 @@
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="5"/>
@@ -924,9 +966,11 @@
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="5"/>
@@ -939,9 +983,11 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="5"/>
@@ -954,9 +1000,11 @@
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5"/>
@@ -966,21 +1014,18 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -997,6 +1042,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -172,13 +172,16 @@
   </si>
   <si>
     <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/procurement/procurementservicedeliverychallan 2.Input description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +244,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -403,9 +411,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +425,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,26 +464,8 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +693,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" activeCellId="2" sqref="C11 C12 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -700,165 +708,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="9">
+      <c r="E1" s="18"/>
+      <c r="F1" s="8">
         <v>44684</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="9">
+      <c r="E2" s="19"/>
+      <c r="F2" s="8">
         <v>44684</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -867,15 +877,17 @@
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -884,15 +896,17 @@
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -901,15 +915,17 @@
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -919,14 +935,14 @@
         <v>46</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -936,14 +952,14 @@
         <v>45</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -953,14 +969,14 @@
         <v>44</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -970,14 +986,14 @@
         <v>43</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
@@ -987,14 +1003,14 @@
         <v>42</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -1004,28 +1020,34 @@
         <v>41</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1042,12 +1064,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -428,6 +428,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,27 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +693,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="2" sqref="C11 C12 C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -708,148 +708,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="8">
         <v>44684</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="8">
         <v>44684</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -858,7 +858,7 @@
       <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -877,7 +877,7 @@
       <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -896,7 +896,7 @@
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -915,7 +915,7 @@
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -934,7 +934,9 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="11" t="s">
         <v>39</v>
       </c>
@@ -951,7 +953,9 @@
       <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
@@ -968,7 +972,9 @@
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
@@ -985,7 +991,9 @@
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1010,9 @@
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
@@ -1019,7 +1029,9 @@
       <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
@@ -1036,18 +1048,15 @@
       <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="C20" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1064,6 +1073,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>1.Go to http://test.beacontech.xyz/procurement/procurementservicedeliverychallan 2.Input description</t>
+  </si>
+  <si>
+    <t>Primeark</t>
+  </si>
+  <si>
+    <t>PO0232000</t>
+  </si>
+  <si>
+    <t>15-03-2022</t>
+  </si>
+  <si>
+    <t>Twenty twenty</t>
+  </si>
+  <si>
+    <t>hdh3838pjdj</t>
+  </si>
+  <si>
+    <t>Add</t>
   </si>
 </sst>
 </file>
@@ -403,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -431,6 +449,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,24 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +712,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -708,148 +727,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="8">
         <v>44684</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="8">
         <v>44684</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
@@ -864,7 +883,9 @@
       <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
@@ -883,7 +904,9 @@
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
@@ -902,7 +925,9 @@
       <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
@@ -921,7 +946,9 @@
       <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
@@ -940,7 +967,9 @@
       <c r="D14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
@@ -959,7 +988,9 @@
       <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
@@ -978,7 +1009,9 @@
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
@@ -997,7 +1030,9 @@
       <c r="D17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
@@ -1016,7 +1051,9 @@
       <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="27">
+        <v>2022</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
@@ -1035,7 +1072,9 @@
       <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
@@ -1054,9 +1093,18 @@
       <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="E20" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1073,12 +1121,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -87,9 +87,6 @@
     <t>Test Step</t>
   </si>
   <si>
-    <t>Post condition</t>
-  </si>
-  <si>
     <t>shoeb</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Merchandising</t>
   </si>
   <si>
-    <t>Laptop</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -193,13 +187,49 @@
   </si>
   <si>
     <t>Add</t>
+  </si>
+  <si>
+    <t>user should be able Add Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be select date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be write remarks </t>
+  </si>
+  <si>
+    <t>user should be able input commision</t>
+  </si>
+  <si>
+    <t>user should be able to select inspection agent name</t>
+  </si>
+  <si>
+    <t>user should be able to select  agent name</t>
+  </si>
+  <si>
+    <t>user should be able input seasion year</t>
+  </si>
+  <si>
+    <t>user should be able PO number</t>
+  </si>
+  <si>
+    <t>user should be able to select buyer name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully Inputed </t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should  be able input PO number </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,20 +273,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -264,8 +280,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -337,12 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -391,63 +408,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,25 +455,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,404 +688,455 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="41" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="31" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8">
-        <v>44684</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="8">
-        <v>44684</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="F14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="1" t="s">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.5" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="31" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="27">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="F20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+  <mergeCells count="21">
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1120,7 +1150,12 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/style_create.xlsx
+++ b/style_create.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -96,9 +96,6 @@
     <t>Merchandising</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>TC-01</t>
   </si>
   <si>
@@ -135,101 +132,191 @@
     <t>Valid Url and stable internet</t>
   </si>
   <si>
-    <t>select buyer name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write po number </t>
-  </si>
-  <si>
-    <t>Input seasion year</t>
-  </si>
-  <si>
-    <t>Select a date field</t>
-  </si>
-  <si>
-    <t>select agent name</t>
-  </si>
-  <si>
-    <t>select inspection agent name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input commison </t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>input seasion year in word</t>
-  </si>
-  <si>
-    <t>input po number in all strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add </t>
-  </si>
-  <si>
     <t>1.Go to http://test.beacontech.xyz/procurement/procurementservicedeliverychallan 2.Input description</t>
   </si>
   <si>
-    <t>Primeark</t>
-  </si>
-  <si>
-    <t>PO0232000</t>
-  </si>
-  <si>
-    <t>15-03-2022</t>
-  </si>
-  <si>
-    <t>Twenty twenty</t>
-  </si>
-  <si>
-    <t>hdh3838pjdj</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>user should be able Add Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be select date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user should be write remarks </t>
-  </si>
-  <si>
-    <t>user should be able input commision</t>
-  </si>
-  <si>
-    <t>user should be able to select inspection agent name</t>
-  </si>
-  <si>
-    <t>user should be able to select  agent name</t>
-  </si>
-  <si>
-    <t>user should be able input seasion year</t>
-  </si>
-  <si>
-    <t>user should be able PO number</t>
-  </si>
-  <si>
-    <t>user should be able to select buyer name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Successfully Inputed </t>
   </si>
   <si>
     <t>Successfully selected</t>
   </si>
   <si>
-    <t xml:space="preserve">user should  be able input PO number </t>
+    <t>Input Style Name</t>
+  </si>
+  <si>
+    <t>Inpu Style PO</t>
+  </si>
+  <si>
+    <t>Select Finish Itme</t>
+  </si>
+  <si>
+    <t>Select Finish Category</t>
+  </si>
+  <si>
+    <t>Select Finish sub-Category</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Fabrication</t>
+  </si>
+  <si>
+    <t>TC-13</t>
+  </si>
+  <si>
+    <t>TC-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Size </t>
+  </si>
+  <si>
+    <t>Select Color</t>
+  </si>
+  <si>
+    <t>Input Order Qunaity</t>
+  </si>
+  <si>
+    <t>Input pcs per pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Price </t>
+  </si>
+  <si>
+    <t>Input subset</t>
+  </si>
+  <si>
+    <t>Add Button</t>
+  </si>
+  <si>
+    <t>TC-15</t>
+  </si>
+  <si>
+    <t>TC-16</t>
+  </si>
+  <si>
+    <t>TC-17</t>
+  </si>
+  <si>
+    <t>TC-18</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Invalid Order Quantity </t>
+  </si>
+  <si>
+    <t>Input Invalid pcs per pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Invalid Price </t>
+  </si>
+  <si>
+    <t>Men's Pyjama</t>
+  </si>
+  <si>
+    <t>PO16032022</t>
+  </si>
+  <si>
+    <t>Pyjama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's </t>
+  </si>
+  <si>
+    <t>Urgent Style</t>
+  </si>
+  <si>
+    <t>100% cotton</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>RTYUD</t>
+  </si>
+  <si>
+    <t>TYIUD</t>
+  </si>
+  <si>
+    <t>HYTIB</t>
+  </si>
+  <si>
+    <t>RTRER</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>User should be able to select Finish Category</t>
+  </si>
+  <si>
+    <t>User should be able input Style PO</t>
+  </si>
+  <si>
+    <t>User should be able input Style Name</t>
+  </si>
+  <si>
+    <t>User should be able to select Sub-Category</t>
+  </si>
+  <si>
+    <t>User should be able to select Finish Item</t>
+  </si>
+  <si>
+    <t>User should be able input Item Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able input Fabrication </t>
+  </si>
+  <si>
+    <t>User should be able to select Size</t>
+  </si>
+  <si>
+    <t>User should be able to select Color</t>
+  </si>
+  <si>
+    <t>User should Not be able to pcs per pack</t>
+  </si>
+  <si>
+    <t>User should be able to Input Order Qunaity</t>
+  </si>
+  <si>
+    <t>User should be able to Input pcs per pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should Not be able to Input Invalid Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to Input Input Price </t>
+  </si>
+  <si>
+    <t>Input Invalid subset</t>
+  </si>
+  <si>
+    <t>User should Not be able to Input Invalid subset.</t>
+  </si>
+  <si>
+    <t>User should be able to Input subset</t>
+  </si>
+  <si>
+    <t>User should be able to Clock ADD Button</t>
+  </si>
+  <si>
+    <t>User should Not be able to Input Invalid Qunaity</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kdnEIFY3ki-6vX-YqlPCn2EqgYyprsDt/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,8 +371,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +456,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -408,53 +512,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,8 +549,54 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,10 +818,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -706,435 +836,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="41" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="41" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="41" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="41" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="41" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="41" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="41" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="41" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="31" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="30.5" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="19">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="31" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="H19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="30.5" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="31" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="F26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="H26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1"/>
+      <c r="F27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="A1:B1"/>
@@ -1151,13 +1479,11 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>